--- a/upload/25.xlsx
+++ b/upload/25.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64314\www\add_employee\upload\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD03521-F32F-4158-931B-905C1FC91CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. පෞද්ගලික තොරතුරු" sheetId="1" r:id="rId1"/>
@@ -21,12 +27,12 @@
     <sheet name="13.විනය ක්‍රියාමාර්ග විස්තර" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="185">
   <si>
     <t>ජනාධිපති කාර්යාලයේ රාජකාරි සිදුකරන පුද්ගලයින්ගේ තොරතුරු යාවත්කාලීන කිරීම</t>
   </si>
@@ -55,6 +61,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -113,9 +120,6 @@
     <t>ජ/පෞලි/3653</t>
   </si>
   <si>
-    <t>මහත්මිය</t>
-  </si>
-  <si>
     <t>ස්ත්‍රී</t>
   </si>
   <si>
@@ -512,6 +516,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>EB Exams)</t>
     </r>
@@ -623,12 +628,15 @@
   </si>
   <si>
     <t>කා.කා.සෙ</t>
+  </si>
+  <si>
+    <t>ETH1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -644,10 +652,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -655,23 +665,27 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -684,6 +698,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -691,6 +706,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -698,6 +714,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -705,6 +722,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -712,12 +730,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -725,6 +745,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -732,6 +753,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -759,6 +781,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -779,6 +802,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -799,6 +823,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -806,12 +831,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1349,6 +1376,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1675,11 +1705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1811,53 +1841,53 @@
       <c r="D4" s="45">
         <v>5983735</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="45" t="s">
+      <c r="E4" s="45">
+        <v>2</v>
+      </c>
+      <c r="F4" s="45">
+        <v>2</v>
+      </c>
+      <c r="G4" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="H4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="I4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="J4" s="45" t="s">
         <v>23</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>24</v>
       </c>
       <c r="K4" s="83">
         <v>32184</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="83">
         <v>42620</v>
       </c>
       <c r="N4" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="O4" s="45">
+        <v>1</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="11" t="s">
+      <c r="V4" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="87" customFormat="1" ht="30">
@@ -1865,61 +1895,61 @@
         <v>869</v>
       </c>
       <c r="B5" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="77">
+        <v>1</v>
+      </c>
+      <c r="F5" s="77">
+        <v>1</v>
+      </c>
+      <c r="G5" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="85" t="s">
+      <c r="H5" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="I5" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="J5" s="77" t="s">
         <v>164</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>165</v>
       </c>
       <c r="K5" s="86">
         <v>33568</v>
       </c>
       <c r="L5" s="77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="O5" s="77">
+        <v>1</v>
+      </c>
+      <c r="R5" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="73" t="s">
+      <c r="V5" s="74" t="s">
         <v>25</v>
-      </c>
-      <c r="U5" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="74" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1927,46 +1957,13 @@
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="F4">
-      <formula1>$S$4:$S$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="L4">
-      <formula1>$T$4:$T$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="N4">
-      <formula1>$V$4:$V$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="O4">
-      <formula1>$U$4:$U$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="E4">
-      <formula1>$R$4:$R$5</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="_x000a__x000a_" sqref="K5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5">
-      <formula1>$V$4:$V$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5">
-      <formula1>$U$4:$U$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
-      <formula1>$T$4:$T$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>$S$4:$S$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>$R$4:$R$8</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2001,7 +1998,7 @@
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
       <c r="A2" s="118" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="114"/>
       <c r="C2" s="61"/>
@@ -2018,16 +2015,16 @@
     </row>
     <row r="3" spans="1:13" ht="53.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>147</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -2045,13 +2042,13 @@
         <v>885421768V</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="64"/>
@@ -2069,13 +2066,13 @@
         <v>913313461V</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="64"/>
       <c r="F5" s="64"/>
@@ -2098,7 +2095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2135,7 +2132,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="41"/>
@@ -2143,16 +2140,16 @@
     </row>
     <row r="3" spans="1:13" ht="49.5" customHeight="1">
       <c r="A3" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2161,16 +2158,16 @@
         <v>885421768V</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="10">
         <v>43358</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2182,7 +2179,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +2187,7 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D4:D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D4:D5" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>$F$4:$F$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -2200,7 +2197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,25 +2230,25 @@
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1">
       <c r="A2" s="68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="46.5" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>156</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2260,31 +2257,31 @@
         <v>885421768V</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="34"/>
       <c r="B5" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2297,7 +2294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2361,7 +2358,7 @@
     </row>
     <row r="2" spans="1:16" ht="24.75" customHeight="1">
       <c r="A2" s="113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="114"/>
       <c r="C2" s="16"/>
@@ -2381,52 +2378,52 @@
     </row>
     <row r="3" spans="1:16" ht="42.75" customHeight="1">
       <c r="A3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="N3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="P3" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="91" customFormat="1" ht="30">
@@ -2434,25 +2431,25 @@
         <v>17</v>
       </c>
       <c r="B4" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>49</v>
       </c>
       <c r="E4" s="89">
         <v>12530</v>
       </c>
       <c r="F4" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="58" t="s">
         <v>50</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>51</v>
       </c>
       <c r="I4" s="38">
         <v>382292050</v>
@@ -2467,45 +2464,45 @@
         <v>112354336</v>
       </c>
       <c r="M4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O4" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="94" customFormat="1" ht="30">
       <c r="A5" s="92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="81" t="s">
         <v>166</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>167</v>
       </c>
       <c r="E5" s="81">
         <v>10250</v>
       </c>
       <c r="F5" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="H5" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="81" t="s">
-        <v>170</v>
-      </c>
       <c r="I5" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J5" s="75">
         <v>716486742</v>
@@ -2517,16 +2514,16 @@
         <v>112354336</v>
       </c>
       <c r="M5" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O5" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P5" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2535,8 +2532,8 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1"/>
-    <hyperlink ref="O5" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="O5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2544,7 +2541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
@@ -2644,7 +2641,7 @@
     </row>
     <row r="2" spans="1:43" ht="33.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -2698,7 +2695,7 @@
       <c r="F3" s="26"/>
       <c r="G3" s="16"/>
       <c r="H3" s="115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="116"/>
       <c r="J3" s="116"/>
@@ -2738,133 +2735,133 @@
     </row>
     <row r="4" spans="1:43" ht="51.75" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="I4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="J4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="K4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="L4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="30" t="s">
-        <v>64</v>
-      </c>
       <c r="M4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="O4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="P4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="Q4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="30" t="s">
-        <v>64</v>
-      </c>
       <c r="R4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="T4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="U4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="30" t="s">
+      <c r="V4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="30" t="s">
-        <v>64</v>
-      </c>
       <c r="W4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="X4" s="30" t="s">
+      <c r="Y4" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="Z4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="Z4" s="30" t="s">
+      <c r="AA4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AA4" s="30" t="s">
-        <v>64</v>
-      </c>
       <c r="AB4" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC4" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AD4" s="30" t="s">
+      <c r="AE4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AE4" s="30" t="s">
-        <v>64</v>
-      </c>
       <c r="AF4" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG4" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AH4" s="30" t="s">
+      <c r="AI4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AI4" s="30" t="s">
-        <v>64</v>
-      </c>
       <c r="AJ4" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK4" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AL4" s="30" t="s">
+      <c r="AM4" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="AM4" s="33" t="s">
-        <v>64</v>
-      </c>
       <c r="AN4" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AO4" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AP4" s="30" t="s">
+      <c r="AQ4" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="AQ4" s="33" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="91" customFormat="1" ht="45">
@@ -2872,7 +2869,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="89">
         <v>779192387</v>
@@ -2881,41 +2878,41 @@
         <v>30928</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="38">
         <v>198424700706</v>
       </c>
       <c r="G5" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="89" t="s">
         <v>67</v>
-      </c>
-      <c r="H5" s="89" t="s">
-        <v>68</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="96">
         <v>43097</v>
       </c>
       <c r="K5" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="89" t="s">
+      <c r="M5" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="89" t="s">
-        <v>71</v>
-      </c>
       <c r="N5" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O5" s="96">
         <v>44044</v>
       </c>
       <c r="P5" s="89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R5" s="89"/>
       <c r="S5" s="98"/>
@@ -2953,47 +2950,47 @@
       <c r="F6" s="75"/>
       <c r="G6" s="93"/>
       <c r="H6" s="100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I6" s="99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J6" s="99">
         <v>22021</v>
       </c>
       <c r="K6" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M6" s="100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N6" s="95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O6" s="99">
         <v>22979</v>
       </c>
       <c r="P6" s="81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" s="100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S6" s="81"/>
       <c r="T6" s="101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U6" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V6" s="81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W6" s="81"/>
       <c r="X6" s="81"/>
@@ -3012,10 +3009,10 @@
         <v>36102</v>
       </c>
       <c r="AL6" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM6" s="81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN6" s="81"/>
       <c r="AO6" s="99"/>
@@ -3036,7 +3033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -3074,7 +3071,7 @@
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1">
       <c r="A2" s="118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="35"/>
@@ -3085,25 +3082,25 @@
     </row>
     <row r="3" spans="1:13" ht="45" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="E3" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="F3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="36" t="s">
         <v>78</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>79</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
@@ -3118,13 +3115,13 @@
         <v>885421768V</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>80</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>81</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
@@ -3134,16 +3131,16 @@
     </row>
     <row r="5" spans="1:13" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="104" t="s">
         <v>182</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="104" t="s">
-        <v>183</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="77"/>
@@ -3162,7 +3159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3220,7 +3217,7 @@
     </row>
     <row r="3" spans="1:28" ht="22.5" customHeight="1">
       <c r="A3" s="118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="114"/>
       <c r="C3" s="42"/>
@@ -3232,64 +3229,64 @@
     </row>
     <row r="4" spans="1:28" ht="96.75" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="O4" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="P4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="S4" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="U4" s="44"/>
       <c r="V4" s="44"/>
@@ -3306,10 +3303,10 @@
         <v>885421768V</v>
       </c>
       <c r="B5" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>103</v>
       </c>
       <c r="D5" s="96">
         <v>42262</v>
@@ -3324,35 +3321,35 @@
         <v>42289</v>
       </c>
       <c r="H5" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="89" t="s">
         <v>104</v>
-      </c>
-      <c r="I5" s="89" t="s">
-        <v>105</v>
       </c>
       <c r="J5" s="89"/>
       <c r="K5" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="89" t="s">
-        <v>106</v>
-      </c>
-      <c r="M5" s="89" t="s">
+      <c r="N5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="N5" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="93" t="s">
-        <v>176</v>
-      </c>
-      <c r="P5" s="89" t="s">
+      <c r="Q5" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="Q5" s="89" t="s">
-        <v>109</v>
-      </c>
       <c r="R5" s="89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S5" s="89">
         <v>30440</v>
@@ -3361,33 +3358,33 @@
         <v>44454</v>
       </c>
       <c r="V5" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="W5" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="W5" s="37" t="s">
+      <c r="X5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z5" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA5" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="X5" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z5" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA5" s="37" t="s">
+      <c r="AB5" s="37" t="s">
         <v>112</v>
-      </c>
-      <c r="AB5" s="37" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="102" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="81"/>
       <c r="D6" s="99">
@@ -3399,21 +3396,21 @@
       </c>
       <c r="G6" s="99"/>
       <c r="H6" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I6" s="81"/>
       <c r="J6" s="81"/>
       <c r="K6" s="81"/>
       <c r="L6" s="81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M6" s="81"/>
       <c r="N6" s="105"/>
       <c r="O6" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="81" t="s">
         <v>176</v>
-      </c>
-      <c r="P6" s="81" t="s">
-        <v>177</v>
       </c>
       <c r="Q6" s="81"/>
       <c r="R6" s="106">
@@ -3425,25 +3422,25 @@
       <c r="T6" s="81"/>
       <c r="U6" s="94"/>
       <c r="V6" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="W6" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="78" t="s">
+      <c r="X6" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z6" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA6" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="X6" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z6" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA6" s="79" t="s">
+      <c r="AB6" s="78" t="s">
         <v>112</v>
-      </c>
-      <c r="AB6" s="78" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3451,46 +3448,46 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C5" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$AB$5:$AB$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="K5:L5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="K5:L5" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>$AA$5:$AA$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="Q5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="Q5" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>$Z$5:$Z$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="N5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="N5" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>$X$5:$X$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="I5" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>$V$5:$V$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="H5" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>$Y$5:$Y$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="M5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="M5" xr:uid="{00000000-0002-0000-0400-000006000000}">
       <formula1>$W$5:$W$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{00000000-0002-0000-0400-000007000000}">
       <formula1>$AB$5:$AB$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6" xr:uid="{00000000-0002-0000-0400-000008000000}">
       <formula1>$Y$5:$Y$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6" xr:uid="{00000000-0002-0000-0400-000009000000}">
       <formula1>$Z$5:$Z$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6" xr:uid="{00000000-0002-0000-0400-00000A000000}">
       <formula1>$X$5:$X$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6" xr:uid="{00000000-0002-0000-0400-00000B000000}">
       <formula1>$W$5:$W$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6" xr:uid="{00000000-0002-0000-0400-00000C000000}">
       <formula1>$V$5:$V$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:L6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:L6" xr:uid="{00000000-0002-0000-0400-00000D000000}">
       <formula1>$AA$5:$AA$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -3500,7 +3497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3561,7 +3558,7 @@
     </row>
     <row r="2" spans="1:37" ht="16.5" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
@@ -3576,115 +3573,115 @@
     </row>
     <row r="3" spans="1:37" ht="45" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="D3" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="F3" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="G3" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>123</v>
-      </c>
       <c r="H3" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="J3" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="K3" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="L3" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="M3" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>123</v>
-      </c>
       <c r="N3" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="P3" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="Q3" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="R3" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="S3" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="S3" s="29" t="s">
-        <v>123</v>
-      </c>
       <c r="T3" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="U3" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="V3" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="V3" s="51" t="s">
+      <c r="W3" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="W3" s="51" t="s">
+      <c r="X3" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="X3" s="29" t="s">
+      <c r="Y3" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="Y3" s="29" t="s">
-        <v>123</v>
-      </c>
       <c r="Z3" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA3" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="AA3" s="51" t="s">
+      <c r="AB3" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="AB3" s="51" t="s">
+      <c r="AC3" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="AC3" s="51" t="s">
+      <c r="AD3" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="AD3" s="29" t="s">
+      <c r="AE3" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="AE3" s="29" t="s">
-        <v>123</v>
-      </c>
       <c r="AF3" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG3" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="AG3" s="51" t="s">
+      <c r="AH3" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="AH3" s="51" t="s">
+      <c r="AI3" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="AI3" s="51" t="s">
+      <c r="AJ3" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="AJ3" s="29" t="s">
+      <c r="AK3" s="29" t="s">
         <v>122</v>
-      </c>
-      <c r="AK3" s="29" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15.75" customHeight="1">
@@ -3693,225 +3690,225 @@
         <v>885421768V</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AI4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AJ4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK4" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="71" customFormat="1" ht="15.75">
       <c r="A5" s="75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="W5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AI5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AJ5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK5" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3924,7 +3921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3959,61 +3956,61 @@
     </row>
     <row r="2" spans="1:17" ht="24.75" customHeight="1">
       <c r="A2" s="54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="47.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>128</v>
-      </c>
       <c r="F3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>128</v>
-      </c>
       <c r="J3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>128</v>
-      </c>
       <c r="N3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="P3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="Q3" s="18" t="s">
         <v>127</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -4022,97 +4019,97 @@
         <v>885421768V</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="55">
         <v>2021</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="71" customFormat="1">
       <c r="A5" s="75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="80"/>
       <c r="F5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4125,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -4162,61 +4159,61 @@
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1">
       <c r="A2" s="122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="114"/>
     </row>
     <row r="3" spans="1:17" ht="39.75" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="F3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="J3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="N3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="O3" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="P3" s="18" t="s">
+      <c r="Q3" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -4225,52 +4222,52 @@
         <v>885421768V</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -4279,52 +4276,52 @@
         <v>913313461V</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4338,7 +4335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4373,60 +4370,60 @@
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="42" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="D3" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="E3" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="G3" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="O3" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="Q3" s="58" t="s">
         <v>138</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>139</v>
       </c>
       <c r="R3" s="60"/>
       <c r="S3" s="60"/>
@@ -4475,12 +4472,12 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="71" customFormat="1">
       <c r="A5" s="75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="12">
@@ -4512,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4520,10 +4517,10 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C4:E5 G4:I4 K4:M4 O4:Q4 G5 I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C4:E5 G4:I4 K4:M4 O4:Q4 G5 I5" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>$S$4:$S$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:Q5 K5:M5 H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:Q5 K5:M5 H5" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>$S$4:$S$5</formula1>
     </dataValidation>
   </dataValidations>
